--- a/06-03-2023/data/output/xlsx/sample_0/category__2.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="144">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -58,6 +58,30 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
@@ -85,40 +109,205 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__9,num_of_equals__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_equals__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_unknowns__2,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
@@ -151,12 +340,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -187,150 +370,42 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
@@ -338,81 +413,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -568,30 +568,66 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$7</c:f>
+              <c:f>AddsSubs!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$7</c:f>
+              <c:f>AddsSubs!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.08580183861082738</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.08232445520581114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06472491909385113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06565656565656566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04761904761904762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02531645569620253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,30 +748,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$7</c:f>
+              <c:f>MultsDivs!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$7</c:f>
+              <c:f>MultsDivs!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.0855614973262032</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.09154929577464789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09677419354838709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0821917808219178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1081081081081081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,10 +940,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$8</c:f>
+              <c:f>Equations!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -868,16 +952,40 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$8</c:f>
+              <c:f>Equations!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.08826479438314945</c:v>
                 </c:pt>
@@ -885,6 +993,30 @@
                   <c:v>0.08779011099899092</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.08719851576994433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08430232558139535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.07352941176470588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08088235294117647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03703703703703703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
@@ -1006,10 +1138,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$8</c:f>
+              <c:f>Decimals!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1018,16 +1150,40 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$8</c:f>
+              <c:f>Decimals!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.1302250803858521</c:v>
                 </c:pt>
@@ -1035,6 +1191,30 @@
                   <c:v>0.1565040650406504</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.1698630136986301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1660079051383399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125748502994012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08235294117647059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.07317073170731707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06451612903225806</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.04347826086956522</c:v>
                 </c:pt>
               </c:numCache>
@@ -1156,30 +1336,48 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.08817635270541083</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.08345534407027819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09615384615384616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08695652173913043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,30 +1498,48 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.08291457286432161</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05732484076433121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06976744186046512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,13 +2198,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.06472491909385113</v>
       </c>
       <c r="E5" s="1">
         <v>0.08817635270541083</v>
@@ -2003,13 +2219,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="E6" s="1">
         <v>0.08817635270541083</v>
@@ -2024,13 +2240,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E7" s="1">
         <v>0.08817635270541083</v>
@@ -2045,13 +2261,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="E8" s="1">
         <v>0.08817635270541083</v>
@@ -2066,13 +2282,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E9" s="1">
         <v>0.08817635270541083</v>
@@ -2087,13 +2303,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E10" s="1">
         <v>0.08817635270541083</v>
@@ -2108,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -2129,7 +2345,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -2150,7 +2366,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2171,13 +2387,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.06472491909385113</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0.08817635270541083</v>
@@ -2192,13 +2408,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.06565656565656566</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0.08817635270541083</v>
@@ -2213,13 +2429,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0.08817635270541083</v>
@@ -2234,13 +2450,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02531645569620253</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0.08817635270541083</v>
@@ -2255,13 +2471,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0.08817635270541083</v>
@@ -2276,13 +2492,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0.08817635270541083</v>
@@ -2297,7 +2513,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -2318,7 +2534,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -2339,66 +2555,66 @@
         <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.1302250803858521</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="E22" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.1243874992738834</v>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1565040650406504</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="E23" s="1">
         <v>0.08817635270541083</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="1">
-        <v>0.1295835608297233</v>
+        <v>0.04640530425603784</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.04347826086956522</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E24" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.04436783661442181</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2406,13 +2622,13 @@
         <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="E25" s="1">
         <v>0.08817635270541083</v>
@@ -2427,55 +2643,59 @@
         <v>35</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E26" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.06248520676195785</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="E27" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
+      <c r="F27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.05824579637314341</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E28" s="1">
         <v>0.08817635270541083</v>
@@ -2487,16 +2707,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E29" s="1">
         <v>0.08817635270541083</v>
@@ -2508,52 +2728,56 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E30" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>10</v>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-0.0319187882037331</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E31" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
+      <c r="F31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-0.001959237890656921</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2571,7 +2795,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2592,33 +2816,31 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.1698630136986301</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.1360048694626607</v>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2636,37 +2858,39 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.08826479438314945</v>
       </c>
       <c r="E36" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
+      <c r="F36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.1191716654578769</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.08779011099899092</v>
       </c>
       <c r="E37" s="1">
         <v>0.08817635270541083</v>
@@ -2678,16 +2902,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.08719851576994433</v>
       </c>
       <c r="E38" s="1">
         <v>0.08817635270541083</v>
@@ -2699,16 +2923,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.08430232558139535</v>
       </c>
       <c r="E39" s="1">
         <v>0.08817635270541083</v>
@@ -2720,16 +2944,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="E40" s="1">
         <v>0.08817635270541083</v>
@@ -2741,16 +2965,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.08088235294117647</v>
       </c>
       <c r="E41" s="1">
         <v>0.08817635270541083</v>
@@ -2762,16 +2986,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="E42" s="1">
         <v>0.08817635270541083</v>
@@ -2783,16 +3007,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E43" s="1">
         <v>0.08817635270541083</v>
@@ -2804,16 +3028,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="E44" s="1">
         <v>0.08817635270541083</v>
@@ -2825,85 +3049,81 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.1660079051383399</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E45" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.1393213917954432</v>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.125748502994012</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E46" s="1">
         <v>0.08817635270541083</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G46" s="1">
-        <v>0.1305512994705342</v>
+        <v>0.1239901508127622</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.1268787334604426</v>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0.08235294117647059</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0.08817635270541083</v>
@@ -2915,16 +3135,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0.06153846153846154</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0.08817635270541083</v>
@@ -2936,16 +3156,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.07317073170731707</v>
+        <v>0.08291457286432161</v>
       </c>
       <c r="E50" s="1">
         <v>0.08817635270541083</v>
@@ -2957,16 +3177,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.06451612903225806</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="E51" s="1">
         <v>0.08817635270541083</v>
@@ -2978,39 +3198,37 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.08826479438314945</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="E52" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.1191716654578769</v>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.08779011099899092</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="E53" s="1">
         <v>0.08817635270541083</v>
@@ -3022,25 +3240,23 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.04</v>
       </c>
       <c r="E54" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.2373931623931624</v>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3048,7 +3264,7 @@
         <v>70</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -3069,7 +3285,7 @@
         <v>71</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -3090,7 +3306,7 @@
         <v>72</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3111,13 +3327,13 @@
         <v>73</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.08719851576994433</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0.08817635270541083</v>
@@ -3132,13 +3348,13 @@
         <v>74</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.08430232558139535</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0.08817635270541083</v>
@@ -3153,13 +3369,13 @@
         <v>75</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.07352941176470588</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0.08817635270541083</v>
@@ -3174,13 +3390,13 @@
         <v>76</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.08088235294117647</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0.08817635270541083</v>
@@ -3195,13 +3411,13 @@
         <v>77</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.05434782608695652</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0.08817635270541083</v>
@@ -3216,13 +3432,13 @@
         <v>78</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
         <v>0.08817635270541083</v>
@@ -3237,13 +3453,13 @@
         <v>79</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
         <v>0.08817635270541083</v>
@@ -3258,141 +3474,151 @@
         <v>80</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.05882352941176471</v>
+        <v>0.1302250803858521</v>
       </c>
       <c r="E65" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>10</v>
+      <c r="F65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.1231463645221103</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0855614973262032</v>
+        <v>0.1565040650406504</v>
       </c>
       <c r="E66" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>10</v>
+      <c r="F66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.1191694231692088</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.09154929577464789</v>
+        <v>0.1698630136986301</v>
       </c>
       <c r="E67" s="1">
         <v>0.08817635270541083</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G67" s="1">
-        <v>0.1233350263388968</v>
+        <v>0.113939629957775</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.1660079051383399</v>
       </c>
       <c r="E68" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>10</v>
+      <c r="F68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.09622313914907932</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="E69" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
+      <c r="F69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.05183091153888256</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E70" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>10</v>
+      <c r="F70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.03018818216052009</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="E71" s="1">
         <v>0.08817635270541083</v>
@@ -3404,39 +3630,37 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.09677419354838709</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E72" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.1268850238875858</v>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.0821917808219178</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="E73" s="1">
         <v>0.08817635270541083</v>
@@ -3448,62 +3672,58 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E74" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.1477158997487825</v>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.1081081081081081</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E75" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.1517264794715775</v>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
         <v>0.08817635270541083</v>
@@ -3515,16 +3735,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1">
         <v>0.08817635270541083</v>
@@ -3536,48 +3756,44 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0.08100649350649351</v>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
       </c>
       <c r="D79" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.1084183673469388</v>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3585,13 +3801,13 @@
         <v>101</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.08817635270541083</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
         <v>0.08817635270541083</v>
@@ -3606,13 +3822,13 @@
         <v>102</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.08345534407027819</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
         <v>0.08817635270541083</v>
@@ -3627,7 +3843,7 @@
         <v>103</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3648,7 +3864,7 @@
         <v>104</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3669,7 +3885,7 @@
         <v>105</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3690,59 +3906,55 @@
         <v>106</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.09473684210526316</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.1043213445931966</v>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.09615384615384616</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.1171706726176015</v>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>0.08817635270541083</v>
@@ -3754,10 +3966,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3775,10 +3987,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3796,10 +4008,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3817,10 +4029,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3838,10 +4050,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3859,16 +4071,16 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.08291457286432161</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.08817635270541083</v>
@@ -3880,16 +4092,16 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.05732484076433121</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.08817635270541083</v>
@@ -3901,16 +4113,16 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.08817635270541083</v>
       </c>
       <c r="E95" s="1">
         <v>0.08817635270541083</v>
@@ -3922,16 +4134,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.08345534407027819</v>
       </c>
       <c r="E96" s="1">
         <v>0.08817635270541083</v>
@@ -3943,44 +4155,48 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="E97" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>10</v>
+      <c r="F97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G97" s="1">
+        <v>-0.01177497153469672</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="E98" s="1">
         <v>0.08817635270541083</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>10</v>
+      <c r="F98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.002489472305653401</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3988,13 +4204,13 @@
         <v>122</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E99" s="1">
         <v>0.08817635270541083</v>
@@ -4009,13 +4225,13 @@
         <v>123</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.05333333333333334</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
         <v>0.08817635270541083</v>
@@ -4030,13 +4246,13 @@
         <v>124</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.06976744186046512</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
         <v>0.08817635270541083</v>
@@ -4051,13 +4267,13 @@
         <v>125</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1">
         <v>0.08817635270541083</v>
@@ -4072,7 +4288,7 @@
         <v>126</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4093,7 +4309,7 @@
         <v>127</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4114,7 +4330,7 @@
         <v>128</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4135,7 +4351,7 @@
         <v>129</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4156,7 +4372,7 @@
         <v>130</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4179,7 +4395,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4320,6 +4536,264 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.06472491909385113</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.0234514336115597</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.06565656565656566</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.02251978704884516</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.04055730508636321</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.0628598970092083</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.06894558347464159</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.025</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.06317635270541083</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4328,7 +4802,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4385,7 +4859,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4428,7 +4902,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4466,6 +4940,350 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.008597840842976268</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.005984571883493023</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.02293475840570028</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.01993175540269729</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.04272180725086537</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.02935282329364612</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.002732738203680085</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.03682364729458917</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4477,7 +5295,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4534,7 +5352,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4577,7 +5395,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4620,22 +5438,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3">
-        <v>9</v>
+        <v>539</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.08719851576994433</v>
       </c>
       <c r="E6" s="3">
         <v>0.08817635270541083</v>
       </c>
       <c r="F6" s="1">
-        <v>0.02293475840570028</v>
+        <v>-0.0009778369354664918</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4658,6 +5476,350 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.08430232558139535</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.003874027124015481</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.07352941176470588</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.01464694094070494</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.08088235294117647</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.007293999764234352</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.05434782608695652</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.03382852661845431</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.05113931566837379</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.03103349556255369</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.02935282329364612</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.02293475840570028</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -4669,7 +5831,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4726,7 +5888,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -4769,7 +5931,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -4812,22 +5974,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.1698630136986301</v>
       </c>
       <c r="E6" s="3">
         <v>0.08817635270541083</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.04469809183584561</v>
+        <v>0.08168666099321931</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4850,6 +6012,350 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1660079051383399</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.07783155243292911</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.125748502994012</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.03757215028860114</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.02293475840570028</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.08235294117647059</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.005823411528940239</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.02663789116694928</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.01500562099809376</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.02366022367315276</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.04469809183584561</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -4861,7 +6367,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4918,7 +6424,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -4961,7 +6467,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -4999,6 +6505,135 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.09473684210526316</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.006560489399852334</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.007977493448435333</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.001219830966280394</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5010,7 +6645,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5067,7 +6702,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -5110,7 +6745,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -5148,6 +6783,135 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.03484301937207749</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.01840891084494571</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.08817635270541083</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.04817635270541083</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>

--- a/06-03-2023/data/output/xlsx/sample_0/category__2.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="143">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -58,6 +58,9 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
+    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -109,54 +112,198 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__11,num_of_mults_and_divs__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_mults_and_divs__7,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_mults_and_divs__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__9,num_of_equals__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_equals__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
@@ -169,60 +316,60 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -238,6 +385,9 @@
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__6,num_of_equals__11,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
@@ -260,159 +410,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_equals__0,num_of_equals__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -568,10 +565,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$13</c:f>
+              <c:f>AddsSubs!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -595,39 +592,63 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$13</c:f>
+              <c:f>AddsSubs!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.08580183861082738</c:v>
+                  <c:v>0.4626865671641791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08232445520581114</c:v>
+                  <c:v>0.4761904761904762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06472491909385113</c:v>
+                  <c:v>0.391304347826087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06565656565656566</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04761904761904762</c:v>
+                  <c:v>0.3076923076923077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02531645569620253</c:v>
+                  <c:v>0.3043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01923076923076923</c:v>
+                  <c:v>0.2222222222222222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.025</c:v>
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,10 +769,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$15</c:f>
+              <c:f>MultsDivs!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -775,51 +796,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$15</c:f>
+              <c:f>MultsDivs!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0855614973262032</c:v>
+                  <c:v>0.3846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09154929577464789</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09677419354838709</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0821917808219178</c:v>
+                  <c:v>0.4285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1081081081081081</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04545454545454546</c:v>
+                  <c:v>0.6666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.05882352941176471</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09090909090909091</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.125</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,10 +949,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$16</c:f>
+              <c:f>Equations!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -976,48 +985,54 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$16</c:f>
+              <c:f>Equations!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.08826479438314945</c:v>
+                  <c:v>0.463768115942029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08779011099899092</c:v>
+                  <c:v>0.463768115942029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08719851576994433</c:v>
+                  <c:v>0.456140350877193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08430232558139535</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.07352941176470588</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08088235294117647</c:v>
+                  <c:v>0.4482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05434782608695652</c:v>
+                  <c:v>0.4782608695652174</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03703703703703703</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05714285714285714</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05882352941176471</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,37 +1200,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.1302250803858521</c:v>
+                  <c:v>0.5094339622641509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1565040650406504</c:v>
+                  <c:v>0.4888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1698630136986301</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1660079051383399</c:v>
+                  <c:v>0.4848484848484849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125748502994012</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.4814814814814815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3529411764705883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.1111111111111111</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.08235294117647059</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.06153846153846154</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.07317073170731707</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.06451612903225806</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,10 +1351,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$10</c:f>
+              <c:f>Unknowns!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1354,30 +1369,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$10</c:f>
+              <c:f>Unknowns!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.08817635270541083</c:v>
+                  <c:v>0.463768115942029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08345534407027819</c:v>
+                  <c:v>0.4339622641509434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09473684210526316</c:v>
+                  <c:v>0.3809523809523809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09615384615384616</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08695652173913043</c:v>
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1498,10 +1525,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$10</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1516,30 +1543,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$10</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.08291457286432161</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05732484076433121</c:v>
+                  <c:v>0.4705882352941176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05333333333333334</c:v>
+                  <c:v>0.4210526315789473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06976744186046512</c:v>
+                  <c:v>0.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0.2222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2156,16 +2195,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>979</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.08580183861082738</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="E3" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -2177,37 +2216,39 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>826</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08232445520581114</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="E4" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.4502024095643977</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>309</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06472491909385113</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="E5" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -2216,19 +2257,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.06565656565656566</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -2237,19 +2278,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04761904761904762</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E7" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -2258,19 +2299,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02531645569620253</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="E8" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -2279,19 +2320,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01923076923076923</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E9" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -2300,19 +2341,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.025</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E10" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
@@ -2321,19 +2362,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E11" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
@@ -2342,19 +2383,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E12" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
@@ -2363,19 +2404,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -2384,19 +2425,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -2405,10 +2446,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
@@ -2417,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -2426,10 +2467,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -2438,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -2447,10 +2488,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -2459,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -2468,10 +2509,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -2480,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -2489,7 +2530,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2501,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -2510,7 +2551,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2522,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -2531,7 +2572,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2543,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -2552,153 +2593,157 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0855614973262032</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="E22" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.5108704921246067</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.09154929577464789</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="E23" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1">
-        <v>0.04640530425603784</v>
+        <v>0.2606416022017526</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.09677419354838709</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G24" s="1">
-        <v>0.04436783661442181</v>
+        <v>-0.1088818214324287</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0821917808219178</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E25" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.2040823448836719</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1">
-        <v>0.06248520676195785</v>
+        <v>-0.1548247682997926</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1081081081081081</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E27" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G27" s="1">
-        <v>0.05824579637314341</v>
+        <v>-0.2588304979609327</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04545454545454546</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E28" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
@@ -2707,7 +2752,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1">
         <v>17</v>
@@ -2716,10 +2761,10 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05882352941176471</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E29" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
@@ -2728,65 +2773,61 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.09090909090909091</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E30" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="1">
-        <v>-0.0319187882037331</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E31" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="1">
-        <v>-0.001959237890656921</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E32" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
@@ -2795,10 +2836,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -2807,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
@@ -2816,10 +2857,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2828,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
@@ -2837,10 +2878,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2849,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -2858,25 +2899,23 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.08826479438314945</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.1191716654578769</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2884,16 +2923,16 @@
         <v>51</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.08779011099899092</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -2905,16 +2944,16 @@
         <v>52</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.08719851576994433</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -2926,16 +2965,16 @@
         <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.08430232558139535</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -2947,16 +2986,16 @@
         <v>54</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.07352941176470588</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
@@ -2968,16 +3007,16 @@
         <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0.08088235294117647</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
@@ -2989,16 +3028,16 @@
         <v>56</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0.05434782608695652</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
@@ -3010,16 +3049,16 @@
         <v>57</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
@@ -3031,16 +3070,16 @@
         <v>58</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
@@ -3052,16 +3091,16 @@
         <v>59</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
@@ -3073,30 +3112,28 @@
         <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.1239901508127622</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -3105,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -3114,10 +3151,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
@@ -3126,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -3135,10 +3172,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
@@ -3147,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -3156,19 +3193,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.08291457286432161</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
@@ -3177,19 +3214,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.05732484076433121</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -3198,19 +3235,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.05333333333333334</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="E52" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
@@ -3219,19 +3256,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.06976744186046512</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="E53" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
@@ -3240,19 +3277,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="E54" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
@@ -3261,19 +3298,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="E55" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
@@ -3282,19 +3319,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="E56" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
@@ -3303,19 +3340,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="E57" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -3324,23 +3361,25 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E58" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.08409362962918675</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3348,16 +3387,16 @@
         <v>74</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E59" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
@@ -3369,16 +3408,16 @@
         <v>75</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E60" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -3390,16 +3429,16 @@
         <v>76</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E61" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -3411,16 +3450,16 @@
         <v>77</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E62" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -3432,25 +3471,27 @@
         <v>78</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E63" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-0.3422723428806325</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3462,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -3471,25 +3512,23 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.1302250803858521</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.1231463645221103</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3497,131 +3536,121 @@
         <v>82</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.1565040650406504</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E66" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.1191694231692088</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>15</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.1698630136986301</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E67" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.113939629957775</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.1660079051383399</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E68" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.09622313914907932</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.125748502994012</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E69" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.05183091153888256</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E70" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.03018818216052009</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.08235294117647059</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E71" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
@@ -3630,61 +3659,65 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.06153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E72" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.2809734150258343</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.07317073170731707</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.5425312563232246</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.06451612903225806</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
@@ -3693,19 +3726,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
@@ -3714,10 +3747,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3726,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
@@ -3735,10 +3768,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3747,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
@@ -3756,10 +3789,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3768,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -3777,10 +3810,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3789,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -3798,19 +3831,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="E80" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -3819,19 +3852,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="E81" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
@@ -3840,19 +3873,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E82" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
@@ -3861,19 +3894,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E83" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
@@ -3882,7 +3915,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B84" s="1">
         <v>3</v>
@@ -3891,10 +3924,10 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E84" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
@@ -3903,19 +3936,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E85" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
@@ -3924,7 +3957,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B86" s="1">
         <v>2</v>
@@ -3933,22 +3966,24 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E86" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-0.2996366839659038</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3957,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
@@ -3966,10 +4001,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3978,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
@@ -3987,7 +4022,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
@@ -3999,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -4008,7 +4043,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
@@ -4020,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
@@ -4029,7 +4064,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4041,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
@@ -4050,7 +4085,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4062,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -4071,44 +4106,48 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="E93" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.1190178747573273</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E94" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.1739280647657369</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4116,16 +4155,16 @@
         <v>116</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>19</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E95" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
@@ -4137,16 +4176,16 @@
         <v>117</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.08345534407027819</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E96" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
@@ -4158,74 +4197,72 @@
         <v>118</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.09473684210526316</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E97" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" s="1">
-        <v>-0.01177497153469672</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.09615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E98" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0.002489472305653401</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.08695652173913043</v>
+        <v>0.5</v>
       </c>
       <c r="E99" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>10</v>
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G99" s="1">
+        <v>-0.0917297508572501</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -4234,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
@@ -4243,10 +4280,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4255,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
@@ -4264,10 +4301,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4276,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
@@ -4285,10 +4322,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4297,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
@@ -4306,10 +4343,10 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B104" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4318,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -4327,10 +4364,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B105" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4339,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
@@ -4348,7 +4385,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4360,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
@@ -4369,7 +4406,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4381,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
@@ -4394,6 +4431,585 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.4626865671641791</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.001081548777849883</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.01242236024844717</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.07246376811594202</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.06376811594202897</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.1560758082497213</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.1594202898550725</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.2415458937198068</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.1780538302277433</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.1001317523056653</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.08876811594202899</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.263768115942029</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.263768115942029</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -4406,7 +5022,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4429,45 +5045,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3">
-        <v>979</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.08580183861082738</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.002374514094583446</v>
+        <v>-0.07915273132664435</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4495,22 +5111,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3">
-        <v>826</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.08232445520581114</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.00585189749959969</v>
+        <v>-0.1304347826086957</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4538,22 +5154,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.06472491909385113</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.0234514336115597</v>
+        <v>-0.1304347826086957</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4581,22 +5197,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06565656565656566</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.02251978704884516</v>
+        <v>-0.03519668737060044</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4624,22 +5240,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E8" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.04055730508636321</v>
+        <v>-0.1304347826086957</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4667,22 +5283,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02531645569620253</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E9" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.0628598970092083</v>
+        <v>-0.1304347826086957</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4710,22 +5326,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.01923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E10" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.06894558347464159</v>
+        <v>0.2028985507246376</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4753,22 +5369,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.06317635270541083</v>
+        <v>0.536231884057971</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -4800,9 +5416,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4836,45 +5452,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0855614973262032</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.002614855379207623</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4902,22 +5518,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.09154929577464789</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F5" s="1">
-        <v>0.003372943069237064</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4945,22 +5561,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.09677419354838709</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F6" s="1">
-        <v>0.008597840842976268</v>
+        <v>-0.007627765064836034</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4988,22 +5604,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0821917808219178</v>
+        <v>0.4375</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.005984571883493023</v>
+        <v>-0.02626811594202899</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5031,22 +5647,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.425</v>
       </c>
       <c r="E8" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F8" s="1">
-        <v>0.02293475840570028</v>
+        <v>-0.038768115942029</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5074,22 +5690,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1081081081081081</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="E9" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F9" s="1">
-        <v>0.01993175540269729</v>
+        <v>-0.01549225387306347</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5117,22 +5733,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.04545454545454546</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E10" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.04272180725086537</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5160,22 +5776,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.05882352941176471</v>
+        <v>0.375</v>
       </c>
       <c r="E11" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.02935282329364612</v>
+        <v>-0.08876811594202899</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5203,22 +5819,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.09090909090909091</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F12" s="1">
-        <v>0.002732738203680085</v>
+        <v>-0.1304347826086957</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5246,7 +5862,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -5255,13 +5871,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F13" s="1">
-        <v>0.03682364729458917</v>
+        <v>-0.213768115942029</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5287,517 +5903,24 @@
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3">
-        <v>997</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.08826479438314945</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.844167773862377E-05</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3">
-        <v>991</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.08779011099899092</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.0003862417064199042</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3">
-        <v>539</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.08719851576994433</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-0.0009778369354664918</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3">
-        <v>344</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.08430232558139535</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-0.003874027124015481</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3">
-        <v>204</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.07352941176470588</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.01464694094070494</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3">
-        <v>136</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.08088235294117647</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-0.007293999764234352</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="3">
-        <v>92</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.05434782608695652</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.03382852661845431</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="3">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-0.05113931566837379</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="3">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-0.03103349556255369</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="3">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-0.02935282329364612</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F14" s="1">
-        <v>0.02293475840570028</v>
+        <v>-0.06376811594202897</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -5820,6 +5943,49 @@
       </c>
       <c r="L14" s="1">
         <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.03623188405797101</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -5842,7 +6008,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5865,45 +6031,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
-        <v>622</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1302250803858521</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F4" s="1">
-        <v>0.04204872768044127</v>
+        <v>0.04566584632212195</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5931,22 +6097,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1565040650406504</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F5" s="1">
-        <v>0.06832771233523957</v>
+        <v>0.02512077294685988</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5974,22 +6140,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
-        <v>365</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1698630136986301</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F6" s="1">
-        <v>0.08168666099321931</v>
+        <v>0.03623188405797101</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6017,22 +6183,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1660079051383399</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F7" s="1">
-        <v>0.07783155243292911</v>
+        <v>0.02108036890645587</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6060,22 +6226,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.125748502994012</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F8" s="1">
-        <v>0.03757215028860114</v>
+        <v>0.03623188405797101</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6103,22 +6269,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E9" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F9" s="1">
-        <v>0.02293475840570028</v>
+        <v>0.01771336553945246</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6146,22 +6312,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.08235294117647059</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E10" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.005823411528940239</v>
+        <v>-0.03519668737060044</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6189,22 +6355,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.06153846153846154</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E11" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.02663789116694928</v>
+        <v>-0.1108269394714407</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6232,22 +6398,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.07317073170731707</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.01500562099809376</v>
+        <v>-0.1304347826086957</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6275,22 +6441,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.06451612903225806</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E13" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F13" s="1">
-        <v>-0.02366022367315276</v>
+        <v>-0.3526570048309179</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6318,22 +6484,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.125</v>
       </c>
       <c r="E14" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F14" s="1">
-        <v>-0.04469809183584561</v>
+        <v>-0.338768115942029</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6367,7 +6533,371 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="3">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.4339622641509434</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.02980585179108558</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.08281573498964806</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.1304347826086957</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.1304347826086957</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.1304347826086957</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.03623188405797101</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6401,45 +6931,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3">
-        <v>998</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.48</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>0.01623188405797099</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6467,22 +6997,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3">
-        <v>683</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.08345534407027819</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.00472100863513264</v>
+        <v>0.006820119352088649</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6510,22 +7040,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.09473684210526316</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F6" s="1">
-        <v>0.006560489399852334</v>
+        <v>-0.04271548436308165</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6553,22 +7083,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.09615384615384616</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F7" s="1">
-        <v>0.007977493448435333</v>
+        <v>-0.2971014492753623</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6596,22 +7126,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.08695652173913043</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E8" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.001219830966280394</v>
+        <v>-0.2415458937198068</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6637,281 +7167,89 @@
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.1304347826086957</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="3">
-        <v>398</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.08291457286432161</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-0.00526177984108922</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.03623188405797101</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>1.95996398454</v>
       </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3">
-        <v>157</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.05732484076433121</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.03085151194107962</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="3">
-        <v>75</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-0.03484301937207749</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-0.01840891084494571</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="3">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.04817635270541083</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
